--- a/Book 2.xlsx
+++ b/Book 2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A86E97E-5908-4B15-A30B-DE49FD3C8C3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1193AF4-4D8C-4B4F-B06B-06C7820067CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>DAY</t>
   </si>
@@ -124,225 +124,6 @@
   </si>
   <si>
     <t>GLOBAL</t>
-  </si>
-  <si>
-    <t>1/13/2020</t>
-  </si>
-  <si>
-    <t>1/14/2020</t>
-  </si>
-  <si>
-    <t>1/15/2020</t>
-  </si>
-  <si>
-    <t>1/16/2020</t>
-  </si>
-  <si>
-    <t>1/17/2020</t>
-  </si>
-  <si>
-    <t>1/18/2020</t>
-  </si>
-  <si>
-    <t>1/19/2020</t>
-  </si>
-  <si>
-    <t>1/20/2020</t>
-  </si>
-  <si>
-    <t>1/21/2020</t>
-  </si>
-  <si>
-    <t>1/22/2020</t>
-  </si>
-  <si>
-    <t>1/23/2020</t>
-  </si>
-  <si>
-    <t>1/24/2020</t>
-  </si>
-  <si>
-    <t>1/25/2020</t>
-  </si>
-  <si>
-    <t>1/26/2020</t>
-  </si>
-  <si>
-    <t>1/27/2020</t>
-  </si>
-  <si>
-    <t>1/28/2020</t>
-  </si>
-  <si>
-    <t>1/29/2020</t>
-  </si>
-  <si>
-    <t>1/30/2020</t>
-  </si>
-  <si>
-    <t>1/31/2020</t>
-  </si>
-  <si>
-    <t>2/13/2020</t>
-  </si>
-  <si>
-    <t>2/14/2020</t>
-  </si>
-  <si>
-    <t>2/15/2020</t>
-  </si>
-  <si>
-    <t>2/16/2020</t>
-  </si>
-  <si>
-    <t>2/17/2020</t>
-  </si>
-  <si>
-    <t>2/18/2020</t>
-  </si>
-  <si>
-    <t>2/19/2020</t>
-  </si>
-  <si>
-    <t>2/20/2020</t>
-  </si>
-  <si>
-    <t>2/21/2020</t>
-  </si>
-  <si>
-    <t>2/22/2020</t>
-  </si>
-  <si>
-    <t>2/23/2020</t>
-  </si>
-  <si>
-    <t>2/24/2020</t>
-  </si>
-  <si>
-    <t>2/25/2020</t>
-  </si>
-  <si>
-    <t>2/26/2020</t>
-  </si>
-  <si>
-    <t>2/27/2020</t>
-  </si>
-  <si>
-    <t>2/28/2020</t>
-  </si>
-  <si>
-    <t>2/29/2020</t>
-  </si>
-  <si>
-    <t>3/13/2020</t>
-  </si>
-  <si>
-    <t>3/14/2020</t>
-  </si>
-  <si>
-    <t>3/15/2020</t>
-  </si>
-  <si>
-    <t>3/16/2020</t>
-  </si>
-  <si>
-    <t>3/17/2020</t>
-  </si>
-  <si>
-    <t>3/18/2020</t>
-  </si>
-  <si>
-    <t>3/19/2020</t>
-  </si>
-  <si>
-    <t>3/20/2020</t>
-  </si>
-  <si>
-    <t>3/21/2020</t>
-  </si>
-  <si>
-    <t>3/22/2020</t>
-  </si>
-  <si>
-    <t>3/23/2020</t>
-  </si>
-  <si>
-    <t>3/24/2020</t>
-  </si>
-  <si>
-    <t>3/25/2020</t>
-  </si>
-  <si>
-    <t>3/26/2020</t>
-  </si>
-  <si>
-    <t>3/27/2020</t>
-  </si>
-  <si>
-    <t>3/28/2020</t>
-  </si>
-  <si>
-    <t>3/29/2020</t>
-  </si>
-  <si>
-    <t>3/30/2020</t>
-  </si>
-  <si>
-    <t>3/31/2020</t>
-  </si>
-  <si>
-    <t>4/13/2020</t>
-  </si>
-  <si>
-    <t>4/14/2020</t>
-  </si>
-  <si>
-    <t>4/15/2020</t>
-  </si>
-  <si>
-    <t>4/16/2020</t>
-  </si>
-  <si>
-    <t>4/17/2020</t>
-  </si>
-  <si>
-    <t>4/18/2020</t>
-  </si>
-  <si>
-    <t>4/19/2020</t>
-  </si>
-  <si>
-    <t>4/20/2020</t>
-  </si>
-  <si>
-    <t>4/21/2020</t>
-  </si>
-  <si>
-    <t>4/22/2020</t>
-  </si>
-  <si>
-    <t>4/23/2020</t>
-  </si>
-  <si>
-    <t>4/24/2020</t>
-  </si>
-  <si>
-    <t>4/25/2020</t>
-  </si>
-  <si>
-    <t>4/26/2020</t>
-  </si>
-  <si>
-    <t>4/27/2020</t>
-  </si>
-  <si>
-    <t>4/28/2020</t>
-  </si>
-  <si>
-    <t>4/29/2020</t>
-  </si>
-  <si>
-    <t>4/30/2020</t>
   </si>
 </sst>
 </file>
@@ -699,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -915,7 +696,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>43862</v>
+        <v>43832</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -1016,7 +797,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>43891</v>
+        <v>43833</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -1117,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>43922</v>
+        <v>43834</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -1218,7 +999,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>43952</v>
+        <v>43835</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -1319,7 +1100,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>43983</v>
+        <v>43836</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -1420,7 +1201,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>44013</v>
+        <v>43837</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
@@ -1521,7 +1302,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>44044</v>
+        <v>43838</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1622,7 +1403,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>44075</v>
+        <v>43839</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -1723,7 +1504,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>44105</v>
+        <v>43840</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -1824,7 +1605,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>44136</v>
+        <v>43841</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -1925,7 +1706,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>44166</v>
+        <v>43842</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -2025,8 +1806,8 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>33</v>
+      <c r="B14" s="2">
+        <v>43843</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
@@ -2126,8 +1907,8 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>34</v>
+      <c r="B15" s="2">
+        <v>43844</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
@@ -2227,8 +2008,8 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>35</v>
+      <c r="B16" s="2">
+        <v>43845</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -2328,8 +2109,8 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
+      <c r="B17" s="2">
+        <v>43846</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -2429,8 +2210,8 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>37</v>
+      <c r="B18" s="2">
+        <v>43847</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -2530,8 +2311,8 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>38</v>
+      <c r="B19" s="2">
+        <v>43848</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -2631,8 +2412,8 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>39</v>
+      <c r="B20" s="2">
+        <v>43849</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -2732,8 +2513,8 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>40</v>
+      <c r="B21" s="2">
+        <v>43850</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
@@ -2833,8 +2614,8 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>41</v>
+      <c r="B22" s="2">
+        <v>43851</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -2934,8 +2715,8 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>42</v>
+      <c r="B23" s="2">
+        <v>43852</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -3035,8 +2816,8 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>43</v>
+      <c r="B24" s="2">
+        <v>43853</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
@@ -3136,8 +2917,8 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>44</v>
+      <c r="B25" s="2">
+        <v>43854</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
@@ -3237,8 +3018,8 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>45</v>
+      <c r="B26" s="2">
+        <v>43855</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
@@ -3338,8 +3119,8 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>46</v>
+      <c r="B27" s="2">
+        <v>43856</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -3439,8 +3220,8 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>47</v>
+      <c r="B28" s="2">
+        <v>43857</v>
       </c>
       <c r="C28" s="3">
         <v>0</v>
@@ -3540,8 +3321,8 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>48</v>
+      <c r="B29" s="2">
+        <v>43858</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
@@ -3641,8 +3422,8 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>49</v>
+      <c r="B30" s="2">
+        <v>43859</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
@@ -3742,8 +3523,8 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>50</v>
+      <c r="B31" s="2">
+        <v>43860</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
@@ -3843,8 +3624,8 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>51</v>
+      <c r="B32" s="2">
+        <v>43861</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
@@ -3945,7 +3726,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>43832</v>
+        <v>43862</v>
       </c>
       <c r="C33" s="3">
         <v>0</v>
@@ -4147,7 +3928,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>43892</v>
+        <v>43864</v>
       </c>
       <c r="C35" s="3">
         <v>0</v>
@@ -4248,7 +4029,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>43923</v>
+        <v>43865</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
@@ -4349,7 +4130,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>43953</v>
+        <v>43866</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
@@ -4450,7 +4231,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>43984</v>
+        <v>43867</v>
       </c>
       <c r="C38" s="3">
         <v>0</v>
@@ -4551,7 +4332,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>44014</v>
+        <v>43868</v>
       </c>
       <c r="C39" s="3">
         <v>0</v>
@@ -4652,7 +4433,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>44045</v>
+        <v>43869</v>
       </c>
       <c r="C40" s="3">
         <v>0</v>
@@ -4753,7 +4534,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>44076</v>
+        <v>43870</v>
       </c>
       <c r="C41" s="3">
         <v>0</v>
@@ -4854,7 +4635,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>44106</v>
+        <v>43871</v>
       </c>
       <c r="C42" s="3">
         <v>0</v>
@@ -4955,7 +4736,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>44137</v>
+        <v>43872</v>
       </c>
       <c r="C43" s="3">
         <v>0</v>
@@ -5056,7 +4837,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>44167</v>
+        <v>43873</v>
       </c>
       <c r="C44" s="3">
         <v>0</v>
@@ -5156,8 +4937,8 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>52</v>
+      <c r="B45" s="2">
+        <v>43874</v>
       </c>
       <c r="C45" s="3">
         <v>0</v>
@@ -5257,8 +5038,8 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>53</v>
+      <c r="B46" s="2">
+        <v>43875</v>
       </c>
       <c r="C46" s="3">
         <v>0</v>
@@ -5358,8 +5139,8 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>54</v>
+      <c r="B47" s="2">
+        <v>43876</v>
       </c>
       <c r="C47" s="3">
         <v>0</v>
@@ -5459,8 +5240,8 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>55</v>
+      <c r="B48" s="2">
+        <v>43877</v>
       </c>
       <c r="C48" s="3">
         <v>0</v>
@@ -5560,8 +5341,8 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>56</v>
+      <c r="B49" s="2">
+        <v>43878</v>
       </c>
       <c r="C49" s="3">
         <v>0</v>
@@ -5661,8 +5442,8 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>57</v>
+      <c r="B50" s="2">
+        <v>43879</v>
       </c>
       <c r="C50" s="3">
         <v>0</v>
@@ -5762,8 +5543,8 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>58</v>
+      <c r="B51" s="2">
+        <v>43880</v>
       </c>
       <c r="C51" s="3">
         <v>0</v>
@@ -5863,8 +5644,8 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>59</v>
+      <c r="B52" s="2">
+        <v>43881</v>
       </c>
       <c r="C52" s="3">
         <v>0</v>
@@ -5964,8 +5745,8 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>60</v>
+      <c r="B53" s="2">
+        <v>43882</v>
       </c>
       <c r="C53" s="3">
         <v>0</v>
@@ -6065,8 +5846,8 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
-        <v>61</v>
+      <c r="B54" s="2">
+        <v>43883</v>
       </c>
       <c r="C54" s="3">
         <v>0</v>
@@ -6166,8 +5947,8 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>62</v>
+      <c r="B55" s="2">
+        <v>43884</v>
       </c>
       <c r="C55" s="3">
         <v>0</v>
@@ -6267,8 +6048,8 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>63</v>
+      <c r="B56" s="2">
+        <v>43885</v>
       </c>
       <c r="C56" s="3">
         <v>0</v>
@@ -6368,8 +6149,8 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>64</v>
+      <c r="B57" s="2">
+        <v>43886</v>
       </c>
       <c r="C57" s="3">
         <v>0</v>
@@ -6469,8 +6250,8 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>65</v>
+      <c r="B58" s="2">
+        <v>43887</v>
       </c>
       <c r="C58" s="3">
         <v>0</v>
@@ -6570,8 +6351,8 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>66</v>
+      <c r="B59" s="2">
+        <v>43888</v>
       </c>
       <c r="C59" s="3">
         <v>0</v>
@@ -6671,8 +6452,8 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>67</v>
+      <c r="B60" s="2">
+        <v>43889</v>
       </c>
       <c r="C60" s="3">
         <v>0</v>
@@ -6772,8 +6553,8 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>68</v>
+      <c r="B61" s="2">
+        <v>43890</v>
       </c>
       <c r="C61" s="3">
         <v>0</v>
@@ -6874,7 +6655,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>43833</v>
+        <v>43891</v>
       </c>
       <c r="C62" s="3">
         <v>0</v>
@@ -6975,7 +6756,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>43864</v>
+        <v>43892</v>
       </c>
       <c r="C63" s="3">
         <v>0</v>
@@ -7177,7 +6958,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>43924</v>
+        <v>43894</v>
       </c>
       <c r="C65" s="3">
         <v>0</v>
@@ -7278,7 +7059,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>43954</v>
+        <v>43895</v>
       </c>
       <c r="C66" s="3">
         <v>0</v>
@@ -7379,7 +7160,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>43985</v>
+        <v>43896</v>
       </c>
       <c r="C67" s="3">
         <v>0</v>
@@ -7480,7 +7261,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>44015</v>
+        <v>43897</v>
       </c>
       <c r="C68" s="3">
         <v>0</v>
@@ -7581,7 +7362,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>44046</v>
+        <v>43898</v>
       </c>
       <c r="C69" s="3">
         <v>0</v>
@@ -7682,7 +7463,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>44077</v>
+        <v>43899</v>
       </c>
       <c r="C70" s="3">
         <v>0</v>
@@ -7783,7 +7564,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>44107</v>
+        <v>43900</v>
       </c>
       <c r="C71" s="3">
         <v>0</v>
@@ -7884,7 +7665,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>44138</v>
+        <v>43901</v>
       </c>
       <c r="C72" s="3">
         <v>0</v>
@@ -7985,7 +7766,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>44168</v>
+        <v>43902</v>
       </c>
       <c r="C73" s="3">
         <v>0</v>
@@ -8085,8 +7866,8 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
-        <v>69</v>
+      <c r="B74" s="2">
+        <v>43903</v>
       </c>
       <c r="C74" s="3">
         <v>-2.5000000000000001E-2</v>
@@ -8186,8 +7967,8 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
-        <v>70</v>
+      <c r="B75" s="2">
+        <v>43904</v>
       </c>
       <c r="C75" s="3">
         <v>-5.0999999999999997E-2</v>
@@ -8287,8 +8068,8 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
-        <v>71</v>
+      <c r="B76" s="2">
+        <v>43905</v>
       </c>
       <c r="C76" s="3">
         <v>-7.5999999999999998E-2</v>
@@ -8388,8 +8169,8 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
-        <v>72</v>
+      <c r="B77" s="2">
+        <v>43906</v>
       </c>
       <c r="C77" s="3">
         <v>-0.10100000000000001</v>
@@ -8489,8 +8270,8 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
-        <v>73</v>
+      <c r="B78" s="2">
+        <v>43907</v>
       </c>
       <c r="C78" s="3">
         <v>-0.14000000000000001</v>
@@ -8590,8 +8371,8 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
-        <v>74</v>
+      <c r="B79" s="2">
+        <v>43908</v>
       </c>
       <c r="C79" s="3">
         <v>-0.17899999999999999</v>
@@ -8691,8 +8472,8 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
-        <v>75</v>
+      <c r="B80" s="2">
+        <v>43909</v>
       </c>
       <c r="C80" s="3">
         <v>-0.218</v>
@@ -8792,8 +8573,8 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
-        <v>76</v>
+      <c r="B81" s="2">
+        <v>43910</v>
       </c>
       <c r="C81" s="3">
         <v>-0.23200000000000001</v>
@@ -8893,8 +8674,8 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
-        <v>77</v>
+      <c r="B82" s="2">
+        <v>43911</v>
       </c>
       <c r="C82" s="3">
         <v>-0.246</v>
@@ -8994,8 +8775,8 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
-        <v>78</v>
+      <c r="B83" s="2">
+        <v>43912</v>
       </c>
       <c r="C83" s="3">
         <v>-0.25900000000000001</v>
@@ -9095,8 +8876,8 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
-        <v>79</v>
+      <c r="B84" s="2">
+        <v>43913</v>
       </c>
       <c r="C84" s="3">
         <v>-0.27300000000000002</v>
@@ -9196,8 +8977,8 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
-        <v>80</v>
+      <c r="B85" s="2">
+        <v>43914</v>
       </c>
       <c r="C85" s="3">
         <v>-0.27300000000000002</v>
@@ -9297,8 +9078,8 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
-        <v>81</v>
+      <c r="B86" s="2">
+        <v>43915</v>
       </c>
       <c r="C86" s="3">
         <v>-0.27300000000000002</v>
@@ -9398,8 +9179,8 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
-        <v>82</v>
+      <c r="B87" s="2">
+        <v>43916</v>
       </c>
       <c r="C87" s="3">
         <v>-0.27300000000000002</v>
@@ -9499,8 +9280,8 @@
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
-        <v>83</v>
+      <c r="B88" s="2">
+        <v>43917</v>
       </c>
       <c r="C88" s="3">
         <v>-0.27300000000000002</v>
@@ -9600,8 +9381,8 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
-        <v>84</v>
+      <c r="B89" s="2">
+        <v>43918</v>
       </c>
       <c r="C89" s="3">
         <v>-0.27300000000000002</v>
@@ -9701,8 +9482,8 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
-        <v>85</v>
+      <c r="B90" s="2">
+        <v>43919</v>
       </c>
       <c r="C90" s="3">
         <v>-0.27300000000000002</v>
@@ -9802,8 +9583,8 @@
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
-        <v>86</v>
+      <c r="B91" s="2">
+        <v>43920</v>
       </c>
       <c r="C91" s="3">
         <v>-0.27300000000000002</v>
@@ -9903,8 +9684,8 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
-        <v>87</v>
+      <c r="B92" s="2">
+        <v>43921</v>
       </c>
       <c r="C92" s="3">
         <v>-0.27300000000000002</v>
@@ -10005,7 +9786,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>43834</v>
+        <v>43922</v>
       </c>
       <c r="C93" s="3">
         <v>-0.27300000000000002</v>
@@ -10106,7 +9887,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>43865</v>
+        <v>43923</v>
       </c>
       <c r="C94" s="3">
         <v>-0.27300000000000002</v>
@@ -10207,7 +9988,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>43894</v>
+        <v>43924</v>
       </c>
       <c r="C95" s="3">
         <v>-0.27300000000000002</v>
@@ -10409,7 +10190,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>43955</v>
+        <v>43926</v>
       </c>
       <c r="C97" s="3">
         <v>-0.27300000000000002</v>
@@ -10510,7 +10291,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>43986</v>
+        <v>43927</v>
       </c>
       <c r="C98" s="3">
         <v>-0.27300000000000002</v>
@@ -10611,7 +10392,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>44016</v>
+        <v>43928</v>
       </c>
       <c r="C99" s="3">
         <v>-0.27300000000000002</v>
@@ -10712,7 +10493,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2">
-        <v>44047</v>
+        <v>43929</v>
       </c>
       <c r="C100" s="3">
         <v>-0.27300000000000002</v>
@@ -10813,7 +10594,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2">
-        <v>44078</v>
+        <v>43930</v>
       </c>
       <c r="C101" s="3">
         <v>-0.27300000000000002</v>
@@ -10914,7 +10695,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="2">
-        <v>44108</v>
+        <v>43931</v>
       </c>
       <c r="C102" s="3">
         <v>-0.27300000000000002</v>
@@ -11015,7 +10796,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="2">
-        <v>44139</v>
+        <v>43932</v>
       </c>
       <c r="C103" s="3">
         <v>-0.27300000000000002</v>
@@ -11116,7 +10897,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2">
-        <v>44169</v>
+        <v>43933</v>
       </c>
       <c r="C104" s="3">
         <v>-0.27300000000000002</v>
@@ -11216,8 +10997,8 @@
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" t="s">
-        <v>88</v>
+      <c r="B105" s="2">
+        <v>43934</v>
       </c>
       <c r="C105" s="3">
         <v>-0.27300000000000002</v>
@@ -11317,8 +11098,8 @@
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" t="s">
-        <v>89</v>
+      <c r="B106" s="2">
+        <v>43935</v>
       </c>
       <c r="C106" s="3">
         <v>-0.27300000000000002</v>
@@ -11418,8 +11199,8 @@
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" t="s">
-        <v>90</v>
+      <c r="B107" s="2">
+        <v>43936</v>
       </c>
       <c r="C107" s="3">
         <v>-0.27300000000000002</v>
@@ -11519,8 +11300,8 @@
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" t="s">
-        <v>91</v>
+      <c r="B108" s="2">
+        <v>43937</v>
       </c>
       <c r="C108" s="3">
         <v>-0.27300000000000002</v>
@@ -11620,8 +11401,8 @@
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" t="s">
-        <v>92</v>
+      <c r="B109" s="2">
+        <v>43938</v>
       </c>
       <c r="C109" s="3">
         <v>-0.27300000000000002</v>
@@ -11721,8 +11502,8 @@
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" t="s">
-        <v>93</v>
+      <c r="B110" s="2">
+        <v>43939</v>
       </c>
       <c r="C110" s="3">
         <v>-0.27300000000000002</v>
@@ -11822,8 +11603,8 @@
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" t="s">
-        <v>94</v>
+      <c r="B111" s="2">
+        <v>43940</v>
       </c>
       <c r="C111" s="3">
         <v>-0.27300000000000002</v>
@@ -11923,8 +11704,8 @@
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" t="s">
-        <v>95</v>
+      <c r="B112" s="2">
+        <v>43941</v>
       </c>
       <c r="C112" s="3">
         <v>-0.27300000000000002</v>
@@ -12024,8 +11805,8 @@
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" t="s">
-        <v>96</v>
+      <c r="B113" s="2">
+        <v>43942</v>
       </c>
       <c r="C113" s="3">
         <v>-0.27300000000000002</v>
@@ -12125,8 +11906,8 @@
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" t="s">
-        <v>97</v>
+      <c r="B114" s="2">
+        <v>43943</v>
       </c>
       <c r="C114" s="3">
         <v>-0.27300000000000002</v>
@@ -12226,8 +12007,8 @@
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" t="s">
-        <v>98</v>
+      <c r="B115" s="2">
+        <v>43944</v>
       </c>
       <c r="C115" s="3">
         <v>-0.25900000000000001</v>
@@ -12327,8 +12108,8 @@
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" t="s">
-        <v>99</v>
+      <c r="B116" s="2">
+        <v>43945</v>
       </c>
       <c r="C116" s="3">
         <v>-0.246</v>
@@ -12428,8 +12209,8 @@
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" t="s">
-        <v>100</v>
+      <c r="B117" s="2">
+        <v>43946</v>
       </c>
       <c r="C117" s="3">
         <v>-0.23200000000000001</v>
@@ -12529,8 +12310,8 @@
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" t="s">
-        <v>101</v>
+      <c r="B118" s="2">
+        <v>43947</v>
       </c>
       <c r="C118" s="3">
         <v>-0.218</v>
@@ -12630,8 +12411,8 @@
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" t="s">
-        <v>102</v>
+      <c r="B119" s="2">
+        <v>43948</v>
       </c>
       <c r="C119" s="3">
         <v>-0.20399999999999999</v>
@@ -12731,8 +12512,8 @@
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" t="s">
-        <v>103</v>
+      <c r="B120" s="2">
+        <v>43949</v>
       </c>
       <c r="C120" s="3">
         <v>-0.191</v>
@@ -12832,8 +12613,8 @@
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" t="s">
-        <v>104</v>
+      <c r="B121" s="2">
+        <v>43950</v>
       </c>
       <c r="C121" s="3">
         <v>-0.17699999999999999</v>
@@ -12933,8 +12714,8 @@
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" t="s">
-        <v>105</v>
+      <c r="B122" s="2">
+        <v>43951</v>
       </c>
       <c r="C122" s="3">
         <v>-0.17699999999999999</v>
